--- a/biology/Botanique/Paspalum_plicatulum/Paspalum_plicatulum.xlsx
+++ b/biology/Botanique/Paspalum_plicatulum/Paspalum_plicatulum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paspalum plicatulum est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Panicoideae, originaire d'Amérique du Sud et d'Amérique centrale.
 Ce sont des plantes herbacées vivaces, cespiteuses, aux tiges (chaumes) dressées ou géniculées ascendantes pouvant atteindre 120 cm de long, aux inflorescences composées de racèmes.
@@ -512,7 +524,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon kerman &amp; Riveros (1990), originaire de l’Amérique du Sud et du centre où il est présent naturellement, Paspalum plicatulum est devenue au fur des années une espèce très répandue dans le monde, notamment en Afrique (Kenya, Côte d'Ivoire, Guinée) en Australie, aux États-Unis, en Océanie (Fidji) et en Asie du Sud-Est (Philippines, Thaïlande, Indonésie, Malaisie et Chine).
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Paspalum plicatulum est une graminée vivace, touffue, cespiteuse pouvant atteindre une hauteur de 1,2 mètre. Les feuilles vert tendre, pliées à la base, sont velues et font jusqu’à 10-15 cm de long, pour 3 à 7 mm de large. La gaine habituellement glabre présente une ligule membraneuse de 1-3 mm de longueur. 
 L’inflorescence est une panicule composée de 10-13 racèmes de 2-10 cm de long ; les épillets par paires (dont une des paires parfois peu développée) de forme ovoïde-ellipsoïdale de dimension 2-3 mm × 1,5-2mm. 
@@ -576,9 +592,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (1 avril 2018)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (1 avril 2018) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Paspalum plicatulum subsp. guenoarum (Arechav.) Roseng., B.R. Arrill. &amp; Izag.
 Paspalum plicatulum subsp. montevidense (Spreng.) Roseng., B.R. Arrill. &amp; Izag.
